--- a/pvz_dataset.xlsx
+++ b/pvz_dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13095\Documents\PvZ Deck Builder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13095\Documents\PvZ Deck Builder\PvZHeroesDeckBuilder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9EB773F-09DC-4CAD-AF71-5CBEBD1F5AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9D3FCB-EC00-4C53-B36E-E1A374DF83F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E8636308-AFB7-435F-8F57-E9210A6EB972}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="185">
   <si>
     <t>Class</t>
   </si>
@@ -480,6 +480,117 @@
   </si>
   <si>
     <t>Make a Wall-Nut in each Ground Lane. Attack for 6 damage in those lanes.</t>
+  </si>
+  <si>
+    <t>Kabloom</t>
+  </si>
+  <si>
+    <t>Puff-Shroom</t>
+  </si>
+  <si>
+    <t>Astro-Shroom</t>
+  </si>
+  <si>
+    <t>When you play a Plant, do 1 damage to the Zombie Hero.</t>
+  </si>
+  <si>
+    <t>Banana Bomb</t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>Do 2 damage to a Zombie.</t>
+  </si>
+  <si>
+    <t>Blooming Heart</t>
+  </si>
+  <si>
+    <t>When this does damage, it gets +1 Attack.</t>
+  </si>
+  <si>
+    <t>Button Shroom</t>
+  </si>
+  <si>
+    <t>High-Voltage Currant</t>
+  </si>
+  <si>
+    <t>This gets +1 Attack when another Berry does damage. When played: Conjure a Berry.</t>
+  </si>
+  <si>
+    <t>Hot Lava</t>
+  </si>
+  <si>
+    <t>Before combat here: Do 1 damage to each Plant and Zombie here.</t>
+  </si>
+  <si>
+    <t>Poison Mushroom</t>
+  </si>
+  <si>
+    <t>Reincarnation</t>
+  </si>
+  <si>
+    <t>While in your hand: At the end of turn, this transforms into a random Plant with +1/+1. It keeps this ability</t>
+  </si>
+  <si>
+    <t>Shroom for Two</t>
+  </si>
+  <si>
+    <t>When played: Make a 1/1 Puff-Shroom with Team-Up here.</t>
+  </si>
+  <si>
+    <t>Veloci-Radish Hatchling</t>
+  </si>
+  <si>
+    <t>Dino-Roar: This gets +1 Attack.</t>
+  </si>
+  <si>
+    <t>Banana Launcher</t>
+  </si>
+  <si>
+    <t>Start of turn: Gain a Banana Bomb.</t>
+  </si>
+  <si>
+    <t>Berry Blast</t>
+  </si>
+  <si>
+    <t>Do 3 damage.</t>
+  </si>
+  <si>
+    <t>Buff-Shroom</t>
+  </si>
+  <si>
+    <t>When played: All Mushrooms get +1/+1.</t>
+  </si>
+  <si>
+    <t>Fireweed</t>
+  </si>
+  <si>
+    <t>When played on the Ground: Make Hot Lava here.</t>
+  </si>
+  <si>
+    <t>Seedling</t>
+  </si>
+  <si>
+    <t>Seed</t>
+  </si>
+  <si>
+    <t>Start of turn: This transforms into a random Plant that costs 6 Sun or less.</t>
+  </si>
+  <si>
+    <t>Shelf Shroom</t>
+  </si>
+  <si>
+    <t>Mushroom Berry</t>
+  </si>
+  <si>
+    <t>Fusion: Do 2 damage.</t>
+  </si>
+  <si>
+    <t>Wild Berry</t>
+  </si>
+  <si>
+    <t>When played: This moves to a random lane.</t>
   </si>
 </sst>
 </file>
@@ -856,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26EB67EE-AE93-4E9A-B967-B49CE16E91C5}">
   <dimension ref="A1:M212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="M72" sqref="M72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -869,7 +980,7 @@
     <col min="6" max="6" width="10.88671875" style="2" customWidth="1"/>
     <col min="7" max="7" width="17.6640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17" style="2" hidden="1" customWidth="1"/>
     <col min="10" max="12" width="15.5546875" style="2" customWidth="1"/>
     <col min="13" max="13" width="10.21875" style="2" customWidth="1"/>
     <col min="14" max="16384" width="8.88671875" style="2"/>
@@ -2551,796 +2662,1681 @@
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="I54" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="J54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="2">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="I55" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="J55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" s="2">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="I56" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="M56" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" s="2">
+        <v>2</v>
+      </c>
+      <c r="D57" s="2">
+        <v>2</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="2">
+        <v>1</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="I57" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="M57" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58" s="2">
+        <v>1</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="I58" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="M58" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="2">
+        <v>1</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="I59" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="M59" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60" s="2">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="I60" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="M60" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" s="2">
+        <v>1</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="I61" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="M61" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C62" s="2">
+        <v>2</v>
+      </c>
+      <c r="D62" s="2">
+        <v>2</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F62" s="2">
+        <v>1</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="I62" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="M62" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F63" s="2">
+        <v>1</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="I63" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="M63" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C64" s="2">
+        <v>1</v>
+      </c>
+      <c r="D64" s="2">
+        <v>2</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" s="2">
+        <v>1</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="I64" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D65" s="2">
+        <v>3</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" s="2">
+        <v>2</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="I65" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="M65" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F66" s="2">
+        <v>2</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="I66" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="M66" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F67" s="2">
+        <v>2</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="I67" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="M67" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C68" s="2">
+        <v>3</v>
+      </c>
+      <c r="D68" s="2">
+        <v>2</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" s="2">
+        <v>2</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="I68" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="M68" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F69" s="2">
+        <v>2</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="I69" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="M69" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C70" s="2">
+        <v>2</v>
+      </c>
+      <c r="D70" s="2">
+        <v>2</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F70" s="2">
+        <v>2</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="I70" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C71" s="2">
+        <v>4</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F71" s="2">
+        <v>2</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I71" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="M71" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I72" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I73" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I74" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I75" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I76" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I77" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I78" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I79" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I80" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I81" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I82" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I83" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I84" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I85" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I86" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I87" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I88" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I89" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I90" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I91" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I92" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I93" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I94" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I95" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I96" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I97" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I98" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I99" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I100" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I101" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I102" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I103" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I104" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I105" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I106" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I107" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I108" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I109" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I110" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I111" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I112" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I113" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I114" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I115" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I116" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I117" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I118" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I119" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I120" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I121" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I122" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I123" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I124" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I125" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I126" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I127" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I128" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I129" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I130" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I131" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I132" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I133" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I134" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I135" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I136" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I137" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I138" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I139" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I140" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I141" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I142" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I143" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I144" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I145" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I146" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I147" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I148" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I149" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I150" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I151" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I152" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I153" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I154" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I155" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I156" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I157" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I158" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I159" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I160" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I161" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I162" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I163" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I164" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I165" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I166" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I167" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I168" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I169" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I170" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I171" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I172" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I173" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I174" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I175" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I176" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I177" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I178" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I179" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I180" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I181" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I182" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I183" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I184" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I185" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I186" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I187" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I188" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I189" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I190" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I191" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I192" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I193" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I194" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I195" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I196" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I197" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I198" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I199" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I200" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I201" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I202" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I203" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I204" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I205" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I206" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I207" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I208" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I209" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I210" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I211" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I212" s="2" t="s">
         <v>13</v>
       </c>
